--- a/ehcore/src/main/resources/excels/asset/statisticByCommunity.xlsx
+++ b/ehcore/src/main/resources/excels/asset/statisticByCommunity.xlsx
@@ -58,13 +58,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -83,13 +81,133 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -97,9 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,126 +230,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -248,19 +246,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,61 +360,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,97 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +509,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,9 +535,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,27 +552,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,137 +570,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,16 +708,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1066,30 +1055,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="9.05" customWidth="1"/>
-    <col min="3" max="3" width="24.3083333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.7916666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="17.925" customWidth="1"/>
-    <col min="8" max="8" width="13.0166666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.925" customWidth="1"/>
-    <col min="10" max="10" width="14.1333333333333" customWidth="1"/>
-    <col min="11" max="11" width="10.425" customWidth="1"/>
+    <col min="1" max="1" width="9.05" customWidth="1"/>
+    <col min="2" max="2" width="24.3083333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.7916666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="17.925" customWidth="1"/>
+    <col min="7" max="7" width="13.0166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.925" customWidth="1"/>
+    <col min="9" max="9" width="14.1333333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.425" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="2:12">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="18.75" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1099,59 +1089,58 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
     </row>
-    <row r="2" ht="15" spans="2:12">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
